--- a/reverseprimer-v3_21.xlsx
+++ b/reverseprimer-v3_21.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="60" windowWidth="19176" windowHeight="15528"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="45096" windowHeight="22872"/>
   </bookViews>
   <sheets>
     <sheet name="reverseprimer-v3_21" sheetId="1" r:id="rId1"/>
@@ -28,865 +28,865 @@
     <t>A1</t>
   </si>
   <si>
-    <t>R1921-AGAGTCTGAT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGAGTCTGATGTCTCGTGGGCTCGG</t>
+    <t>R1921-TGTGTCTTGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGTGTCTTGTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A2</t>
   </si>
   <si>
-    <t>R1922-ATCTGTTGCA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATATCTGTTGCAGTCTCGTGGGCTCGG</t>
+    <t>R1922-CACAGCACAT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCACAGCACATGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A3</t>
   </si>
   <si>
-    <t>R1923-CCTTCTTGTG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCCTTCTTGTGGTCTCGTGGGCTCGG</t>
+    <t>R1923-ACTACGAGAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACTACGAGAGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A4</t>
   </si>
   <si>
-    <t>R1924-TCTCTGGATG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCTCTGGATGGTCTCGTGGGCTCGG</t>
+    <t>R1924-TAGTGTGGTG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTAGTGTGGTGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A5</t>
   </si>
   <si>
-    <t>R1925-AGAAGCTTCA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGAAGCTTCAGTCTCGTGGGCTCGG</t>
+    <t>R1925-GAGGTTGCTA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGAGGTTGCTAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A6</t>
   </si>
   <si>
-    <t>R1926-CTGAACTACG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCTGAACTACGGTCTCGTGGGCTCGG</t>
+    <t>R1926-ACTCCTTGCT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACTCCTTGCTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A7</t>
   </si>
   <si>
-    <t>R1927-CACTCCAGTT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCACTCCAGTTGTCTCGTGGGCTCGG</t>
+    <t>R1927-TACTCACCTT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTACTCACCTTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A8</t>
   </si>
   <si>
-    <t>R1928-ACCTTCGTAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACCTTCGTACGTCTCGTGGGCTCGG</t>
+    <t>R1928-GTCAAGACTA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTCAAGACTAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A9</t>
   </si>
   <si>
-    <t>R1929-TCATCCAAGG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCATCCAAGGGTCTCGTGGGCTCGG</t>
+    <t>R1929-TAGAAGATCG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTAGAAGATCGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A10</t>
   </si>
   <si>
-    <t>R1930-TGACAACACG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGACAACACGGTCTCGTGGGCTCGG</t>
+    <t>R1930-GAGGAAGCAT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGAGGAAGCATGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A11</t>
   </si>
   <si>
-    <t>R1931-GAGTTGCATC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGAGTTGCATCGTCTCGTGGGCTCGG</t>
+    <t>R1931-CAAGTAGATG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCAAGTAGATGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A12</t>
   </si>
   <si>
-    <t>R1932-AGTGGAGAGA</t>
+    <t>R1932-TCTCAGATCT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCTCAGATCTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>B1</t>
+  </si>
+  <si>
+    <t>R1933-ATGGTTCCAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATATGGTTCCACGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>B2</t>
+  </si>
+  <si>
+    <t>R1934-TAGCTACTGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTAGCTACTGAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>B3</t>
+  </si>
+  <si>
+    <t>R1935-TACCTGTGAT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTACCTGTGATGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>B4</t>
+  </si>
+  <si>
+    <t>R1936-CTCTGCAGAA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCTCTGCAGAAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>B5</t>
+  </si>
+  <si>
+    <t>R1937-ATGAAGCTAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATATGAAGCTAGGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>B6</t>
+  </si>
+  <si>
+    <t>R1938-CTGATCAACC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCTGATCAACCGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>B7</t>
+  </si>
+  <si>
+    <t>R1939-TCTCGTCTGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCTCGTCTGAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>B8</t>
+  </si>
+  <si>
+    <t>R1940-ATGGTTCACA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATATGGTTCACAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>B9</t>
+  </si>
+  <si>
+    <t>R1941-CGATCATGTG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCGATCATGTGGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>B10</t>
+  </si>
+  <si>
+    <t>R1942-AAGACTCGTA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAAGACTCGTAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>B11</t>
+  </si>
+  <si>
+    <t>R1943-TACTAGCAAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTACTAGCAAGGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>B12</t>
+  </si>
+  <si>
+    <t>R1944-ACAGACGAAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACAGACGAAGGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>R1945-ACAAGGTGCA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACAAGGTGCAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>R1946-CTTCCTTCTA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCTTCCTTCTAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>R1947-AACGACGAAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAACGACGAACGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>R1948-GTGTCTGTCA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTGTCTGTCAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>C5</t>
+  </si>
+  <si>
+    <t>R1949-GTTGACATGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTTGACATGAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>C6</t>
+  </si>
+  <si>
+    <t>R1950-TCCTCAACCA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCCTCAACCAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>C7</t>
+  </si>
+  <si>
+    <t>R1951-CAAGATGTTG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCAAGATGTTGGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>C8</t>
+  </si>
+  <si>
+    <t>R1952-AACCAAGGTT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAACCAAGGTTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>C9</t>
+  </si>
+  <si>
+    <t>R1953-AGTGGAGAGA</t>
   </si>
   <si>
     <t>CAAGCAGAAGACGGCATACGAGATAGTGGAGAGAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
-    <t>B1</t>
-  </si>
-  <si>
-    <t>R1933-CAACCTAGAA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCAACCTAGAAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>B2</t>
-  </si>
-  <si>
-    <t>R1934-GTAGGTGTAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTAGGTGTAGGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>B3</t>
-  </si>
-  <si>
-    <t>R1935-AAGCAGAAGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAAGCAGAAGAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>B4</t>
-  </si>
-  <si>
-    <t>R1936-TACATGGAAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTACATGGAACGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>B5</t>
-  </si>
-  <si>
-    <t>R1937-ACTGGAAGCA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACTGGAAGCAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>B6</t>
-  </si>
-  <si>
-    <t>R1938-TCTGGAAGAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCTGGAAGAGGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>B7</t>
-  </si>
-  <si>
-    <t>R1939-ACAGCTACCA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACAGCTACCAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>B8</t>
-  </si>
-  <si>
-    <t>R1940-TCCTACTTCA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCCTACTTCAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>B9</t>
-  </si>
-  <si>
-    <t>R1941-ACAAGACTAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACAAGACTAGGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>B10</t>
-  </si>
-  <si>
-    <t>R1942-GGTGTTGAGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGGTGTTGAGTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>B11</t>
-  </si>
-  <si>
-    <t>R1943-TCGATGAAGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCGATGAAGTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>B12</t>
-  </si>
-  <si>
-    <t>R1944-ATCAGAACTC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATATCAGAACTCGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>C1</t>
-  </si>
-  <si>
-    <t>R1945-GGATGATCAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGGATGATCACGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>C2</t>
-  </si>
-  <si>
-    <t>R1946-CAAGATGTTG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCAAGATGTTGGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>C3</t>
-  </si>
-  <si>
-    <t>R1947-TACACATGTG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTACACATGTGGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>C4</t>
-  </si>
-  <si>
-    <t>R1948-AGGTCAGTTG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGGTCAGTTGGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>C5</t>
-  </si>
-  <si>
-    <t>R1949-GAGGTTGCTA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGAGGTTGCTAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>C6</t>
-  </si>
-  <si>
-    <t>R1950-ACCAACCTGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACCAACCTGTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>C7</t>
-  </si>
-  <si>
-    <t>R1951-AACATCAGCT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAACATCAGCTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>C8</t>
-  </si>
-  <si>
-    <t>R1952-TCTCCTCACA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCTCCTCACAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>C9</t>
-  </si>
-  <si>
-    <t>R1953-GTAGAGAGTC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTAGAGAGTCGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
     <t>C10</t>
   </si>
   <si>
-    <t>R1954-CATCAAGGTG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCATCAAGGTGGTCTCGTGGGCTCGG</t>
+    <t>R1954-TACGAACGAA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTACGAACGAAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C11</t>
   </si>
   <si>
-    <t>R1955-TTGCAAGCTA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTTGCAAGCTAGTCTCGTGGGCTCGG</t>
+    <t>R1955-TTGGTCCAGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTTGGTCCAGTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C12</t>
   </si>
   <si>
-    <t>R1956-GTACGTGAGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTACGTGAGTGTCTCGTGGGCTCGG</t>
+    <t>R1956-GGATGGTCTT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGGATGGTCTTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D1</t>
   </si>
   <si>
-    <t>R1957-TAGCTAGAAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTAGCTAGAAGGTCTCGTGGGCTCGG</t>
+    <t>R1957-ACAGTACTTC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACAGTACTTCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D2</t>
   </si>
   <si>
-    <t>R1958-CGAGTGTGTT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCGAGTGTGTTGTCTCGTGGGCTCGG</t>
+    <t>R1958-TACGTGAACA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTACGTGAACAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D3</t>
   </si>
   <si>
-    <t>R1959-TTCTGAGTAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTTCTGAGTACGTCTCGTGGGCTCGG</t>
+    <t>R1959-TCTGAAGTGC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCTGAAGTGCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D4</t>
   </si>
   <si>
-    <t>R1960-GTAGTGAACA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTAGTGAACAGTCTCGTGGGCTCGG</t>
+    <t>R1960-GAGTGTAGGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGAGTGTAGGAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D5</t>
   </si>
   <si>
-    <t>R1961-CCACATGTTC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCCACATGTTCGTCTCGTGGGCTCGG</t>
+    <t>R1961-AGCAGGATCA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGCAGGATCAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D6</t>
   </si>
   <si>
-    <t>R1962-AACACACCTA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAACACACCTAGTCTCGTGGGCTCGG</t>
+    <t>R1962-AGAGACCTAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGAGACCTAGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D7</t>
   </si>
   <si>
-    <t>R1963-AACGTCCTTG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAACGTCCTTGGTCTCGTGGGCTCGG</t>
+    <t>R1963-TGAAGGTTGG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGAAGGTTGGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D8</t>
   </si>
   <si>
-    <t>R1964-AACAAGATGG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAACAAGATGGGTCTCGTGGGCTCGG</t>
+    <t>R1964-CTACGAAGCA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCTACGAAGCAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D9</t>
   </si>
   <si>
-    <t>R1965-CTTGGATCCT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCTTGGATCCTGTCTCGTGGGCTCGG</t>
+    <t>R1965-AGCAACTCAA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGCAACTCAAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D10</t>
   </si>
   <si>
-    <t>R1966-TGCATCGACA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGCATCGACAGTCTCGTGGGCTCGG</t>
+    <t>R1966-ACAACCAACA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACAACCAACAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D11</t>
   </si>
   <si>
-    <t>R1967-ACTGTCAGTG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACTGTCAGTGGTCTCGTGGGCTCGG</t>
+    <t>R1967-AAGCAACAGG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAAGCAACAGGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D12</t>
   </si>
   <si>
-    <t>R1968-AAGGAACCTA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAAGGAACCTAGTCTCGTGGGCTCGG</t>
+    <t>R1968-ATCTGACCTA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATATCTGACCTAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E1</t>
   </si>
   <si>
-    <t>R1969-GGACTTGATG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGGACTTGATGGTCTCGTGGGCTCGG</t>
+    <t>R1969-GTCTGAGCAA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTCTGAGCAAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E2</t>
   </si>
   <si>
-    <t>R1970-ACAGAGAAGA</t>
+    <t>R1970-TACACGTACC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTACACGTACCGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>E3</t>
+  </si>
+  <si>
+    <t>R1971-GTCTTCAACC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTCTTCAACCGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>E4</t>
+  </si>
+  <si>
+    <t>R1972-TTGCATCGAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTTGCATCGACGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>E5</t>
+  </si>
+  <si>
+    <t>R1973-AGAGTGGTCT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGAGTGGTCTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>E6</t>
+  </si>
+  <si>
+    <t>R1974-GTTCGATCGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTTCGATCGAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>E7</t>
+  </si>
+  <si>
+    <t>R1975-CATCTCTTGG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCATCTCTTGGGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>E8</t>
+  </si>
+  <si>
+    <t>R1976-GAGAGACGAT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGAGAGACGATGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>E9</t>
+  </si>
+  <si>
+    <t>R1977-CAGCTACAAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCAGCTACAACGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>E10</t>
+  </si>
+  <si>
+    <t>R1978-GCTTGCTTGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGCTTGCTTGAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>E11</t>
+  </si>
+  <si>
+    <t>R1979-GTAGTTCCTT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTAGTTCCTTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>E12</t>
+  </si>
+  <si>
+    <t>R1980-TGGTGACTGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGGTGACTGAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>R1981-GATCCTGACT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGATCCTGACTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>F2</t>
+  </si>
+  <si>
+    <t>R1982-TACGACACTG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTACGACACTGGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>F3</t>
+  </si>
+  <si>
+    <t>R1983-CAAGTTGCAT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCAAGTTGCATGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>F4</t>
+  </si>
+  <si>
+    <t>R1984-GCTTGAGTAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGCTTGAGTAGGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>F5</t>
+  </si>
+  <si>
+    <t>R1985-GTGAGACTCT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTGAGACTCTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>F6</t>
+  </si>
+  <si>
+    <t>R1986-CTAGGTTGTC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCTAGGTTGTCGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>F7</t>
+  </si>
+  <si>
+    <t>R1987-GCAGTACAAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGCAGTACAAGGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>F8</t>
+  </si>
+  <si>
+    <t>R1988-TGGATGGTCT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGGATGGTCTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>F9</t>
+  </si>
+  <si>
+    <t>R1989-TTCACACTCG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTTCACACTCGGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>F10</t>
+  </si>
+  <si>
+    <t>R1990-GAGACGTCTT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGAGACGTCTTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>F11</t>
+  </si>
+  <si>
+    <t>R1991-ACCACGTGTT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACCACGTGTTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>F12</t>
+  </si>
+  <si>
+    <t>R1992-AACGAACAGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAACGAACAGAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>G1</t>
+  </si>
+  <si>
+    <t>R1993-TCAGAAGTCA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCAGAAGTCAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>G2</t>
+  </si>
+  <si>
+    <t>R1994-CATCCACACA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCATCCACACAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>G3</t>
+  </si>
+  <si>
+    <t>R1995-TGAACGTGTC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGAACGTGTCGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>G4</t>
+  </si>
+  <si>
+    <t>R1996-TGACGAGTAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGACGAGTAGGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>G5</t>
+  </si>
+  <si>
+    <t>R1997-GGTACATGCT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGGTACATGCTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>G6</t>
+  </si>
+  <si>
+    <t>R1998-AACTGGTCGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAACTGGTCGTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>G7</t>
+  </si>
+  <si>
+    <t>R1999-CTGACAGTCA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCTGACAGTCAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>G8</t>
+  </si>
+  <si>
+    <t>R2000-TCCTAGTCTT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCCTAGTCTTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>G9</t>
+  </si>
+  <si>
+    <t>R2001-GGTTGTCAGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGGTTGTCAGAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>G10</t>
+  </si>
+  <si>
+    <t>R2002-GCTGATGCAA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGCTGATGCAAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>G11</t>
+  </si>
+  <si>
+    <t>R2003-TGCACAGCTA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGCACAGCTAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>G12</t>
+  </si>
+  <si>
+    <t>R2004-AAGATGGATC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAAGATGGATCGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>H1</t>
+  </si>
+  <si>
+    <t>R2005-ACAGAGAAGA</t>
   </si>
   <si>
     <t>CAAGCAGAAGACGGCATACGAGATACAGAGAAGAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
-    <t>E3</t>
-  </si>
-  <si>
-    <t>R1971-TGTCAACTCC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGTCAACTCCGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>E4</t>
-  </si>
-  <si>
-    <t>R1972-CAGGTTCCAA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCAGGTTCCAAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>E5</t>
-  </si>
-  <si>
-    <t>R1973-AGTCGTCAAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGTCGTCAACGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>E6</t>
-  </si>
-  <si>
-    <t>R1974-AAGCAAGCTC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAAGCAAGCTCGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>E7</t>
-  </si>
-  <si>
-    <t>R1975-TTGTTGACGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTTGTTGACGTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>E8</t>
-  </si>
-  <si>
-    <t>R1976-ACTCGAGCAA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACTCGAGCAAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>E9</t>
-  </si>
-  <si>
-    <t>R1977-AGACCTAGGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGACCTAGGTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>E10</t>
-  </si>
-  <si>
-    <t>R1978-GTCTGTTCGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTCTGTTCGTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>E11</t>
-  </si>
-  <si>
-    <t>R1979-CTCACAAGTC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCTCACAAGTCGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>E12</t>
-  </si>
-  <si>
-    <t>R1980-GTCTAGCACT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTCTAGCACTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>F1</t>
-  </si>
-  <si>
-    <t>R1981-TAGCTGGTTG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTAGCTGGTTGGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>F2</t>
-  </si>
-  <si>
-    <t>R1982-AGCTGGTGTT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGCTGGTGTTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>F3</t>
-  </si>
-  <si>
-    <t>R1983-TCGTCAGTAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCGTCAGTAGGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>F4</t>
-  </si>
-  <si>
-    <t>R1984-TTGAGGACTC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTTGAGGACTCGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>F5</t>
-  </si>
-  <si>
-    <t>R1985-AAGAGGAACT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAAGAGGAACTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>F6</t>
-  </si>
-  <si>
-    <t>R1986-AGGACAGTCT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGGACAGTCTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>F7</t>
-  </si>
-  <si>
-    <t>R1987-TCACTCAGCT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCACTCAGCTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>F8</t>
-  </si>
-  <si>
-    <t>R1988-AGATCCAACT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGATCCAACTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>F9</t>
-  </si>
-  <si>
-    <t>R1989-ATGCTGTCAT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATATGCTGTCATGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>F10</t>
-  </si>
-  <si>
-    <t>R1990-AGACTGTCTC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGACTGTCTCGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>F11</t>
-  </si>
-  <si>
-    <t>R1991-ACTCGTTGAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACTCGTTGACGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>F12</t>
-  </si>
-  <si>
-    <t>R1992-CACTACTACC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCACTACTACCGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>G1</t>
-  </si>
-  <si>
-    <t>R1993-CAGAGAACGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCAGAGAACGTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>G2</t>
-  </si>
-  <si>
-    <t>R1994-CTTGGTCTGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCTTGGTCTGTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>G3</t>
-  </si>
-  <si>
-    <t>R1995-TCAACGATGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCAACGATGTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>G4</t>
-  </si>
-  <si>
-    <t>R1996-AGAAGAGTCG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGAAGAGTCGGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>G5</t>
-  </si>
-  <si>
-    <t>R1997-ATGATCGAAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATATGATCGAAGGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>G6</t>
-  </si>
-  <si>
-    <t>R1998-GCTACCTACT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGCTACCTACTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>G7</t>
-  </si>
-  <si>
-    <t>R1999-GTGGTCAAGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTGGTCAAGAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>G8</t>
-  </si>
-  <si>
-    <t>R2000-GTAGCTACGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTAGCTACGTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>G9</t>
-  </si>
-  <si>
-    <t>R2001-TTCGTAGCTC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTTCGTAGCTCGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>G10</t>
-  </si>
-  <si>
-    <t>R2002-GTTCGAGACT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTTCGAGACTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>G11</t>
-  </si>
-  <si>
-    <t>R2003-ACGTCTCTTG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACGTCTCTTGGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>G12</t>
-  </si>
-  <si>
-    <t>R2004-GTGGACACAT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTGGACACATGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>H1</t>
-  </si>
-  <si>
-    <t>R2005-GACTCTCTCT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGACTCTCTCTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
     <t>H2</t>
   </si>
   <si>
-    <t>R2006-AGTTCCTACA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGTTCCTACAGTCTCGTGGGCTCGG</t>
+    <t>R2006-TGACAGGACA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGACAGGACAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H3</t>
   </si>
   <si>
-    <t>R2007-GGACTGAACT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGGACTGAACTGTCTCGTGGGCTCGG</t>
+    <t>R2007-CCATCAGGAT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCCATCAGGATGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H4</t>
   </si>
   <si>
-    <t>R2008-ATCTAGGAGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATATCTAGGAGAGTCTCGTGGGCTCGG</t>
+    <t>R2008-AGGTCAACTC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGGTCAACTCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H5</t>
   </si>
   <si>
-    <t>R2009-ATGAGAAGCT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATATGAGAAGCTGTCTCGTGGGCTCGG</t>
+    <t>R2009-CAACATGACG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCAACATGACGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H6</t>
   </si>
   <si>
-    <t>R2010-AGAACTCTGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGAACTCTGAGTCTCGTGGGCTCGG</t>
+    <t>R2010-GAAGCACTAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGAAGCACTAGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H7</t>
   </si>
   <si>
-    <t>R2011-AAGATGTGCA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAAGATGTGCAGTCTCGTGGGCTCGG</t>
+    <t>R2011-CAAGAAGGTT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCAAGAAGGTTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H8</t>
   </si>
   <si>
-    <t>R2012-TAGAGACTTC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTAGAGACTTCGTCTCGTGGGCTCGG</t>
+    <t>R2012-AGTCAACAGC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGTCAACAGCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H9</t>
   </si>
   <si>
-    <t>R2013-GTGTGCACAA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTGTGCACAAGTCTCGTGGGCTCGG</t>
+    <t>R2013-GAACAAGTCC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGAACAAGTCCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H10</t>
   </si>
   <si>
-    <t>R2014-AGAGCTTCGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGAGCTTCGAGTCTCGTGGGCTCGG</t>
+    <t>R2014-AGATGCTGCT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGATGCTGCTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H11</t>
   </si>
   <si>
-    <t>R2015-GACTGACTCA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGACTGACTCAGTCTCGTGGGCTCGG</t>
+    <t>R2015-CTAGAAGACA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCTAGAAGACAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H12</t>
   </si>
   <si>
-    <t>R2016-ATGTGAGTCG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATATGTGAGTCGGTCTCGTGGGCTCGG</t>
+    <t>R2016-GACATGACTG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGACATGACTGGTCTCGTGGGCTCGG</t>
   </si>
 </sst>
 </file>
